--- a/SourceDataTables/FigS12a.xlsx
+++ b/SourceDataTables/FigS12a.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2530" uniqueCount="230">
   <si>
     <t>Gene</t>
   </si>
@@ -723,7 +723,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -733,14 +733,54 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,18 +799,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="21" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -781,7 +821,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -792,7 +832,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -803,7 +843,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -814,7 +854,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -825,7 +865,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -836,7 +876,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -847,7 +887,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -858,7 +898,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -869,7 +909,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -880,7 +920,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -891,7 +931,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -902,7 +942,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -913,7 +953,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -924,7 +964,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -935,7 +975,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -946,7 +986,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -957,7 +997,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -968,7 +1008,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -979,7 +1019,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -990,7 +1030,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -1001,7 +1041,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -1012,7 +1052,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -1023,7 +1063,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -1034,7 +1074,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -1045,7 +1085,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -1056,7 +1096,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -1067,7 +1107,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -1078,7 +1118,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -1089,7 +1129,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -1100,7 +1140,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -1111,7 +1151,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -1122,7 +1162,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -1133,7 +1173,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -1144,7 +1184,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -1155,7 +1195,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -1166,7 +1206,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -1177,7 +1217,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -1188,7 +1228,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -1199,7 +1239,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -1210,7 +1250,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="21" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -1221,7 +1261,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="21" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -1232,7 +1272,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="21" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -1243,7 +1283,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -1254,7 +1294,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -1265,7 +1305,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -1276,7 +1316,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -1287,7 +1327,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="21" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -1298,7 +1338,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="21" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -1309,7 +1349,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="21" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -1320,7 +1360,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="21" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -1331,7 +1371,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="21" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -1342,7 +1382,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="21" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -1353,7 +1393,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="21" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -1364,7 +1404,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -1375,7 +1415,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="21" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -1386,7 +1426,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="21" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -1397,7 +1437,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -1408,7 +1448,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -1419,7 +1459,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="21" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -1430,7 +1470,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="21" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -1441,7 +1481,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -1452,7 +1492,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="21" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -1463,7 +1503,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="21" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -1474,7 +1514,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="21" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -1485,7 +1525,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="21" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -1496,7 +1536,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="21" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -1507,7 +1547,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="21" t="s">
         <v>68</v>
       </c>
       <c r="B69">
@@ -1518,7 +1558,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="21" t="s">
         <v>69</v>
       </c>
       <c r="B70">
@@ -1529,7 +1569,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="21" t="s">
         <v>70</v>
       </c>
       <c r="B71">
@@ -1540,7 +1580,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="21" t="s">
         <v>71</v>
       </c>
       <c r="B72">
@@ -1551,7 +1591,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="21" t="s">
         <v>72</v>
       </c>
       <c r="B73">
@@ -1562,7 +1602,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="21" t="s">
         <v>73</v>
       </c>
       <c r="B74">
@@ -1573,7 +1613,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="21" t="s">
         <v>74</v>
       </c>
       <c r="B75">
@@ -1584,7 +1624,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="21" t="s">
         <v>75</v>
       </c>
       <c r="B76">
@@ -1595,7 +1635,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B77">
@@ -1606,7 +1646,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="21" t="s">
         <v>77</v>
       </c>
       <c r="B78">
@@ -1617,7 +1657,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="21" t="s">
         <v>78</v>
       </c>
       <c r="B79">
@@ -1628,7 +1668,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="21" t="s">
         <v>79</v>
       </c>
       <c r="B80">
@@ -1639,7 +1679,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="21" t="s">
         <v>80</v>
       </c>
       <c r="B81">
@@ -1650,7 +1690,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="21" t="s">
         <v>81</v>
       </c>
       <c r="B82">
@@ -1661,7 +1701,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="21" t="s">
         <v>82</v>
       </c>
       <c r="B83">
@@ -1672,7 +1712,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="21" t="s">
         <v>83</v>
       </c>
       <c r="B84">
@@ -1683,7 +1723,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="21" t="s">
         <v>84</v>
       </c>
       <c r="B85">
@@ -1694,7 +1734,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="21" t="s">
         <v>85</v>
       </c>
       <c r="B86">
@@ -1705,7 +1745,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="21" t="s">
         <v>86</v>
       </c>
       <c r="B87">
@@ -1716,7 +1756,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="21" t="s">
         <v>87</v>
       </c>
       <c r="B88">
@@ -1727,7 +1767,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="21" t="s">
         <v>88</v>
       </c>
       <c r="B89">
@@ -1738,7 +1778,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="21" t="s">
         <v>89</v>
       </c>
       <c r="B90">
@@ -1749,7 +1789,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="21" t="s">
         <v>90</v>
       </c>
       <c r="B91">
@@ -1760,7 +1800,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="21" t="s">
         <v>91</v>
       </c>
       <c r="B92">
@@ -1771,7 +1811,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="21" t="s">
         <v>92</v>
       </c>
       <c r="B93">
@@ -1782,7 +1822,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="21" t="s">
         <v>93</v>
       </c>
       <c r="B94">
@@ -1793,7 +1833,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="21" t="s">
         <v>94</v>
       </c>
       <c r="B95">
@@ -1804,7 +1844,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="21" t="s">
         <v>95</v>
       </c>
       <c r="B96">
@@ -1815,7 +1855,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="21" t="s">
         <v>96</v>
       </c>
       <c r="B97">
@@ -1826,7 +1866,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="21" t="s">
         <v>97</v>
       </c>
       <c r="B98">
@@ -1837,7 +1877,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="21" t="s">
         <v>98</v>
       </c>
       <c r="B99">
@@ -1848,7 +1888,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="21" t="s">
         <v>99</v>
       </c>
       <c r="B100">
@@ -1859,7 +1899,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="21" t="s">
         <v>100</v>
       </c>
       <c r="B101">
@@ -1870,7 +1910,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="21" t="s">
         <v>101</v>
       </c>
       <c r="B102">
@@ -1881,7 +1921,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="21" t="s">
         <v>102</v>
       </c>
       <c r="B103">
@@ -1892,7 +1932,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="21" t="s">
         <v>103</v>
       </c>
       <c r="B104">
@@ -1903,7 +1943,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="21" t="s">
         <v>104</v>
       </c>
       <c r="B105">
@@ -1914,7 +1954,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="21" t="s">
         <v>105</v>
       </c>
       <c r="B106">
@@ -1925,7 +1965,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="21" t="s">
         <v>106</v>
       </c>
       <c r="B107">
@@ -1936,7 +1976,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="21" t="s">
         <v>107</v>
       </c>
       <c r="B108">
@@ -1947,7 +1987,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="21" t="s">
         <v>108</v>
       </c>
       <c r="B109">
@@ -1958,7 +1998,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="21" t="s">
         <v>109</v>
       </c>
       <c r="B110">
@@ -1969,7 +2009,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="21" t="s">
         <v>110</v>
       </c>
       <c r="B111">
@@ -1980,7 +2020,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="21" t="s">
         <v>111</v>
       </c>
       <c r="B112">
@@ -1991,7 +2031,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="21" t="s">
         <v>112</v>
       </c>
       <c r="B113">
@@ -2002,7 +2042,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="21" t="s">
         <v>113</v>
       </c>
       <c r="B114">
@@ -2013,7 +2053,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="21" t="s">
         <v>114</v>
       </c>
       <c r="B115">
@@ -2024,7 +2064,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="21" t="s">
         <v>115</v>
       </c>
       <c r="B116">
@@ -2035,7 +2075,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="21" t="s">
         <v>116</v>
       </c>
       <c r="B117">
@@ -2046,7 +2086,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="21" t="s">
         <v>117</v>
       </c>
       <c r="B118">
@@ -2057,7 +2097,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="21" t="s">
         <v>118</v>
       </c>
       <c r="B119">
@@ -2068,7 +2108,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="21" t="s">
         <v>119</v>
       </c>
       <c r="B120">
@@ -2079,7 +2119,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="21" t="s">
         <v>120</v>
       </c>
       <c r="B121">
@@ -2090,7 +2130,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="21" t="s">
         <v>121</v>
       </c>
       <c r="B122">
@@ -2101,7 +2141,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="21" t="s">
         <v>122</v>
       </c>
       <c r="B123">
@@ -2112,7 +2152,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="21" t="s">
         <v>123</v>
       </c>
       <c r="B124">
@@ -2123,7 +2163,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="21" t="s">
         <v>124</v>
       </c>
       <c r="B125">
@@ -2134,7 +2174,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="21" t="s">
         <v>125</v>
       </c>
       <c r="B126">
@@ -2145,7 +2185,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="21" t="s">
         <v>126</v>
       </c>
       <c r="B127">
@@ -2156,7 +2196,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="21" t="s">
         <v>127</v>
       </c>
       <c r="B128">
@@ -2167,7 +2207,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="21" t="s">
         <v>128</v>
       </c>
       <c r="B129">
@@ -2178,7 +2218,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="21" t="s">
         <v>129</v>
       </c>
       <c r="B130">
@@ -2189,7 +2229,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="21" t="s">
         <v>130</v>
       </c>
       <c r="B131">
@@ -2200,7 +2240,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="21" t="s">
         <v>131</v>
       </c>
       <c r="B132">
@@ -2211,7 +2251,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="21" t="s">
         <v>132</v>
       </c>
       <c r="B133">
@@ -2222,7 +2262,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="21" t="s">
         <v>133</v>
       </c>
       <c r="B134">
@@ -2233,7 +2273,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="21" t="s">
         <v>134</v>
       </c>
       <c r="B135">
@@ -2244,7 +2284,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="21" t="s">
         <v>135</v>
       </c>
       <c r="B136">
@@ -2255,7 +2295,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="21" t="s">
         <v>136</v>
       </c>
       <c r="B137">
@@ -2266,7 +2306,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="21" t="s">
         <v>137</v>
       </c>
       <c r="B138">
@@ -2277,7 +2317,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="21" t="s">
         <v>138</v>
       </c>
       <c r="B139">
@@ -2288,7 +2328,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="21" t="s">
         <v>139</v>
       </c>
       <c r="B140">
@@ -2299,7 +2339,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="21" t="s">
         <v>140</v>
       </c>
       <c r="B141">
@@ -2310,7 +2350,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="21" t="s">
         <v>141</v>
       </c>
       <c r="B142">
@@ -2321,7 +2361,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="21" t="s">
         <v>142</v>
       </c>
       <c r="B143">
@@ -2332,7 +2372,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="21" t="s">
         <v>143</v>
       </c>
       <c r="B144">
@@ -2343,7 +2383,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="21" t="s">
         <v>144</v>
       </c>
       <c r="B145">
@@ -2354,7 +2394,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="21" t="s">
         <v>145</v>
       </c>
       <c r="B146">
@@ -2365,7 +2405,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="21" t="s">
         <v>146</v>
       </c>
       <c r="B147">
@@ -2376,7 +2416,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="21" t="s">
         <v>147</v>
       </c>
       <c r="B148">
@@ -2387,7 +2427,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="21" t="s">
         <v>148</v>
       </c>
       <c r="B149">
@@ -2398,7 +2438,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="21" t="s">
         <v>149</v>
       </c>
       <c r="B150">
@@ -2409,7 +2449,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="21" t="s">
         <v>150</v>
       </c>
       <c r="B151">
@@ -2420,7 +2460,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="21" t="s">
         <v>151</v>
       </c>
       <c r="B152">
@@ -2431,7 +2471,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="21" t="s">
         <v>152</v>
       </c>
       <c r="B153">
@@ -2442,7 +2482,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="21" t="s">
         <v>153</v>
       </c>
       <c r="B154">
@@ -2453,7 +2493,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="21" t="s">
         <v>154</v>
       </c>
       <c r="B155">
@@ -2464,7 +2504,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="21" t="s">
         <v>155</v>
       </c>
       <c r="B156">
@@ -2475,7 +2515,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="21" t="s">
         <v>156</v>
       </c>
       <c r="B157">
@@ -2486,7 +2526,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="21" t="s">
         <v>157</v>
       </c>
       <c r="B158">
@@ -2497,7 +2537,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B159">
@@ -2508,7 +2548,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="21" t="s">
         <v>159</v>
       </c>
       <c r="B160">
@@ -2519,7 +2559,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="21" t="s">
         <v>160</v>
       </c>
       <c r="B161">
@@ -2530,7 +2570,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="21" t="s">
         <v>161</v>
       </c>
       <c r="B162">
@@ -2541,7 +2581,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="21" t="s">
         <v>162</v>
       </c>
       <c r="B163">
@@ -2552,7 +2592,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="21" t="s">
         <v>163</v>
       </c>
       <c r="B164">
@@ -2563,7 +2603,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="21" t="s">
         <v>164</v>
       </c>
       <c r="B165">
@@ -2574,7 +2614,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="21" t="s">
         <v>165</v>
       </c>
       <c r="B166">
@@ -2585,7 +2625,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="21" t="s">
         <v>166</v>
       </c>
       <c r="B167">
@@ -2596,7 +2636,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="21" t="s">
         <v>167</v>
       </c>
       <c r="B168">
@@ -2607,7 +2647,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="21" t="s">
         <v>168</v>
       </c>
       <c r="B169">
@@ -2618,7 +2658,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="21" t="s">
         <v>169</v>
       </c>
       <c r="B170">
@@ -2629,7 +2669,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="21" t="s">
         <v>170</v>
       </c>
       <c r="B171">
@@ -2640,7 +2680,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="21" t="s">
         <v>171</v>
       </c>
       <c r="B172">
@@ -2651,7 +2691,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="21" t="s">
         <v>172</v>
       </c>
       <c r="B173">
@@ -2662,7 +2702,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="21" t="s">
         <v>173</v>
       </c>
       <c r="B174">
@@ -2673,7 +2713,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="21" t="s">
         <v>174</v>
       </c>
       <c r="B175">
@@ -2684,7 +2724,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="21" t="s">
         <v>175</v>
       </c>
       <c r="B176">
@@ -2695,7 +2735,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="21" t="s">
         <v>176</v>
       </c>
       <c r="B177">
@@ -2706,7 +2746,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="21" t="s">
         <v>177</v>
       </c>
       <c r="B178">
@@ -2717,7 +2757,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="21" t="s">
         <v>178</v>
       </c>
       <c r="B179">
@@ -2728,7 +2768,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="21" t="s">
         <v>179</v>
       </c>
       <c r="B180">
@@ -2739,7 +2779,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="21" t="s">
         <v>180</v>
       </c>
       <c r="B181">
@@ -2750,7 +2790,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="21" t="s">
         <v>181</v>
       </c>
       <c r="B182">
@@ -2761,7 +2801,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="21" t="s">
         <v>182</v>
       </c>
       <c r="B183">
@@ -2772,7 +2812,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="21" t="s">
         <v>183</v>
       </c>
       <c r="B184">
@@ -2783,7 +2823,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="21" t="s">
         <v>184</v>
       </c>
       <c r="B185">
@@ -2794,7 +2834,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="21" t="s">
         <v>185</v>
       </c>
       <c r="B186">
@@ -2805,7 +2845,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="21" t="s">
         <v>186</v>
       </c>
       <c r="B187">
@@ -2816,7 +2856,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="21" t="s">
         <v>187</v>
       </c>
       <c r="B188">
@@ -2827,7 +2867,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="21" t="s">
         <v>188</v>
       </c>
       <c r="B189">
@@ -2838,7 +2878,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="21" t="s">
         <v>189</v>
       </c>
       <c r="B190">
@@ -2849,7 +2889,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="21" t="s">
         <v>190</v>
       </c>
       <c r="B191">
@@ -2860,7 +2900,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="s">
+      <c r="A192" s="21" t="s">
         <v>191</v>
       </c>
       <c r="B192">
@@ -2871,7 +2911,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="s">
+      <c r="A193" s="21" t="s">
         <v>192</v>
       </c>
       <c r="B193">
@@ -2882,7 +2922,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="s">
+      <c r="A194" s="21" t="s">
         <v>193</v>
       </c>
       <c r="B194">
@@ -2893,7 +2933,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="21" t="s">
         <v>194</v>
       </c>
       <c r="B195">
@@ -2904,7 +2944,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="s">
+      <c r="A196" s="21" t="s">
         <v>195</v>
       </c>
       <c r="B196">
@@ -2915,7 +2955,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="21" t="s">
         <v>196</v>
       </c>
       <c r="B197">
@@ -2926,7 +2966,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="s">
+      <c r="A198" s="21" t="s">
         <v>197</v>
       </c>
       <c r="B198">
@@ -2937,7 +2977,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="s">
+      <c r="A199" s="21" t="s">
         <v>198</v>
       </c>
       <c r="B199">
@@ -2948,7 +2988,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="21" t="s">
         <v>199</v>
       </c>
       <c r="B200">
@@ -2959,7 +2999,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="21" t="s">
         <v>200</v>
       </c>
       <c r="B201">
@@ -2970,7 +3010,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="21" t="s">
         <v>201</v>
       </c>
       <c r="B202">
@@ -2981,7 +3021,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="21" t="s">
         <v>202</v>
       </c>
       <c r="B203">
@@ -2992,7 +3032,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="s">
+      <c r="A204" s="21" t="s">
         <v>203</v>
       </c>
       <c r="B204">
@@ -3003,7 +3043,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="21" t="s">
         <v>204</v>
       </c>
       <c r="B205">
@@ -3014,7 +3054,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="s">
+      <c r="A206" s="21" t="s">
         <v>205</v>
       </c>
       <c r="B206">
@@ -3025,7 +3065,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="s">
+      <c r="A207" s="21" t="s">
         <v>206</v>
       </c>
       <c r="B207">
@@ -3036,7 +3076,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="s">
+      <c r="A208" s="21" t="s">
         <v>207</v>
       </c>
       <c r="B208">
@@ -3047,7 +3087,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="s">
+      <c r="A209" s="21" t="s">
         <v>208</v>
       </c>
       <c r="B209">
@@ -3058,7 +3098,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="s">
+      <c r="A210" s="21" t="s">
         <v>209</v>
       </c>
       <c r="B210">
@@ -3069,7 +3109,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="s">
+      <c r="A211" s="21" t="s">
         <v>210</v>
       </c>
       <c r="B211">
@@ -3080,7 +3120,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="s">
+      <c r="A212" s="21" t="s">
         <v>211</v>
       </c>
       <c r="B212">
@@ -3091,7 +3131,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="21" t="s">
         <v>212</v>
       </c>
       <c r="B213">
@@ -3102,7 +3142,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="s">
+      <c r="A214" s="21" t="s">
         <v>213</v>
       </c>
       <c r="B214">
@@ -3113,7 +3153,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="21" t="s">
         <v>214</v>
       </c>
       <c r="B215">
@@ -3124,7 +3164,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="s">
+      <c r="A216" s="21" t="s">
         <v>215</v>
       </c>
       <c r="B216">
@@ -3135,7 +3175,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="1" t="s">
+      <c r="A217" s="21" t="s">
         <v>216</v>
       </c>
       <c r="B217">
@@ -3146,7 +3186,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="s">
+      <c r="A218" s="21" t="s">
         <v>217</v>
       </c>
       <c r="B218">
@@ -3157,7 +3197,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="s">
+      <c r="A219" s="21" t="s">
         <v>218</v>
       </c>
       <c r="B219">
@@ -3168,7 +3208,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="1" t="s">
+      <c r="A220" s="21" t="s">
         <v>219</v>
       </c>
       <c r="B220">
@@ -3179,7 +3219,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="s">
+      <c r="A221" s="21" t="s">
         <v>220</v>
       </c>
       <c r="B221">
@@ -3190,7 +3230,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="1" t="s">
+      <c r="A222" s="21" t="s">
         <v>221</v>
       </c>
       <c r="B222">
@@ -3201,7 +3241,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="1" t="s">
+      <c r="A223" s="21" t="s">
         <v>222</v>
       </c>
       <c r="B223">
@@ -3212,7 +3252,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="1" t="s">
+      <c r="A224" s="21" t="s">
         <v>223</v>
       </c>
       <c r="B224">
@@ -3223,7 +3263,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="1" t="s">
+      <c r="A225" s="21" t="s">
         <v>224</v>
       </c>
       <c r="B225">
@@ -3234,7 +3274,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="1" t="s">
+      <c r="A226" s="21" t="s">
         <v>225</v>
       </c>
       <c r="B226">
@@ -3245,7 +3285,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="1" t="s">
+      <c r="A227" s="21" t="s">
         <v>226</v>
       </c>
       <c r="B227">
@@ -3256,7 +3296,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="1" t="s">
+      <c r="A228" s="21" t="s">
         <v>227</v>
       </c>
       <c r="B228">

--- a/SourceDataTables/FigS12a.xlsx
+++ b/SourceDataTables/FigS12a.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2530" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="230">
   <si>
     <t>Gene</t>
   </si>
@@ -723,7 +723,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -753,11 +753,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -781,6 +785,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,18 +807,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="25" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -821,7 +829,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -832,7 +840,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -843,7 +851,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -854,7 +862,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -865,7 +873,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -876,7 +884,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -887,7 +895,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -898,7 +906,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -909,7 +917,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -920,7 +928,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -931,7 +939,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -942,7 +950,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -953,7 +961,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -964,7 +972,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -975,7 +983,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -986,7 +994,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -997,7 +1005,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -1008,7 +1016,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -1019,7 +1027,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="25" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -1030,7 +1038,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="25" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -1041,7 +1049,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="25" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -1052,7 +1060,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="25" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -1063,7 +1071,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -1074,7 +1082,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -1085,7 +1093,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="25" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -1096,7 +1104,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="25" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -1107,7 +1115,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -1118,7 +1126,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -1129,7 +1137,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -1140,7 +1148,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -1151,7 +1159,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="25" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -1162,7 +1170,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="25" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -1173,7 +1181,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="25" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -1184,7 +1192,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -1195,7 +1203,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="25" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -1206,7 +1214,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -1217,7 +1225,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="25" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -1228,7 +1236,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -1239,7 +1247,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="25" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -1250,7 +1258,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="25" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -1261,7 +1269,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -1272,7 +1280,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="25" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -1283,7 +1291,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="25" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -1294,7 +1302,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="25" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -1305,7 +1313,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -1316,7 +1324,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="25" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -1327,7 +1335,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="25" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -1338,7 +1346,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="25" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -1349,7 +1357,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -1360,7 +1368,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="25" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -1371,7 +1379,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="25" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -1382,7 +1390,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -1393,7 +1401,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="25" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -1404,7 +1412,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -1415,7 +1423,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="25" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -1426,7 +1434,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="25" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -1437,7 +1445,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="25" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -1448,7 +1456,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="25" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -1459,7 +1467,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="25" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -1470,7 +1478,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="25" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -1481,7 +1489,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="25" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -1492,7 +1500,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="25" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -1503,7 +1511,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="25" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -1514,7 +1522,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -1525,7 +1533,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="25" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -1536,7 +1544,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="25" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -1547,7 +1555,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="25" t="s">
         <v>68</v>
       </c>
       <c r="B69">
@@ -1558,7 +1566,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="25" t="s">
         <v>69</v>
       </c>
       <c r="B70">
@@ -1569,7 +1577,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="21" t="s">
+      <c r="A71" s="25" t="s">
         <v>70</v>
       </c>
       <c r="B71">
@@ -1580,7 +1588,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="25" t="s">
         <v>71</v>
       </c>
       <c r="B72">
@@ -1591,7 +1599,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B73">
@@ -1602,7 +1610,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="25" t="s">
         <v>73</v>
       </c>
       <c r="B74">
@@ -1613,7 +1621,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="25" t="s">
         <v>74</v>
       </c>
       <c r="B75">
@@ -1624,7 +1632,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="21" t="s">
+      <c r="A76" s="25" t="s">
         <v>75</v>
       </c>
       <c r="B76">
@@ -1635,7 +1643,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="21" t="s">
+      <c r="A77" s="25" t="s">
         <v>76</v>
       </c>
       <c r="B77">
@@ -1646,7 +1654,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="21" t="s">
+      <c r="A78" s="25" t="s">
         <v>77</v>
       </c>
       <c r="B78">
@@ -1657,7 +1665,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="21" t="s">
+      <c r="A79" s="25" t="s">
         <v>78</v>
       </c>
       <c r="B79">
@@ -1668,7 +1676,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="21" t="s">
+      <c r="A80" s="25" t="s">
         <v>79</v>
       </c>
       <c r="B80">
@@ -1679,7 +1687,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="21" t="s">
+      <c r="A81" s="25" t="s">
         <v>80</v>
       </c>
       <c r="B81">
@@ -1690,7 +1698,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="25" t="s">
         <v>81</v>
       </c>
       <c r="B82">
@@ -1701,7 +1709,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="21" t="s">
+      <c r="A83" s="25" t="s">
         <v>82</v>
       </c>
       <c r="B83">
@@ -1712,7 +1720,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="25" t="s">
         <v>83</v>
       </c>
       <c r="B84">
@@ -1723,7 +1731,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="21" t="s">
+      <c r="A85" s="25" t="s">
         <v>84</v>
       </c>
       <c r="B85">
@@ -1734,7 +1742,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="21" t="s">
+      <c r="A86" s="25" t="s">
         <v>85</v>
       </c>
       <c r="B86">
@@ -1745,7 +1753,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="21" t="s">
+      <c r="A87" s="25" t="s">
         <v>86</v>
       </c>
       <c r="B87">
@@ -1756,7 +1764,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="25" t="s">
         <v>87</v>
       </c>
       <c r="B88">
@@ -1767,7 +1775,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="21" t="s">
+      <c r="A89" s="25" t="s">
         <v>88</v>
       </c>
       <c r="B89">
@@ -1778,7 +1786,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="21" t="s">
+      <c r="A90" s="25" t="s">
         <v>89</v>
       </c>
       <c r="B90">
@@ -1789,7 +1797,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="21" t="s">
+      <c r="A91" s="25" t="s">
         <v>90</v>
       </c>
       <c r="B91">
@@ -1800,7 +1808,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="21" t="s">
+      <c r="A92" s="25" t="s">
         <v>91</v>
       </c>
       <c r="B92">
@@ -1811,7 +1819,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="21" t="s">
+      <c r="A93" s="25" t="s">
         <v>92</v>
       </c>
       <c r="B93">
@@ -1822,7 +1830,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="21" t="s">
+      <c r="A94" s="25" t="s">
         <v>93</v>
       </c>
       <c r="B94">
@@ -1833,7 +1841,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="21" t="s">
+      <c r="A95" s="25" t="s">
         <v>94</v>
       </c>
       <c r="B95">
@@ -1844,7 +1852,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="21" t="s">
+      <c r="A96" s="25" t="s">
         <v>95</v>
       </c>
       <c r="B96">
@@ -1855,7 +1863,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="21" t="s">
+      <c r="A97" s="25" t="s">
         <v>96</v>
       </c>
       <c r="B97">
@@ -1866,7 +1874,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="21" t="s">
+      <c r="A98" s="25" t="s">
         <v>97</v>
       </c>
       <c r="B98">
@@ -1877,7 +1885,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="21" t="s">
+      <c r="A99" s="25" t="s">
         <v>98</v>
       </c>
       <c r="B99">
@@ -1888,7 +1896,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="21" t="s">
+      <c r="A100" s="25" t="s">
         <v>99</v>
       </c>
       <c r="B100">
@@ -1899,7 +1907,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="21" t="s">
+      <c r="A101" s="25" t="s">
         <v>100</v>
       </c>
       <c r="B101">
@@ -1910,7 +1918,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="21" t="s">
+      <c r="A102" s="25" t="s">
         <v>101</v>
       </c>
       <c r="B102">
@@ -1921,7 +1929,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="21" t="s">
+      <c r="A103" s="25" t="s">
         <v>102</v>
       </c>
       <c r="B103">
@@ -1932,7 +1940,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="21" t="s">
+      <c r="A104" s="25" t="s">
         <v>103</v>
       </c>
       <c r="B104">
@@ -1943,7 +1951,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="21" t="s">
+      <c r="A105" s="25" t="s">
         <v>104</v>
       </c>
       <c r="B105">
@@ -1954,7 +1962,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="21" t="s">
+      <c r="A106" s="25" t="s">
         <v>105</v>
       </c>
       <c r="B106">
@@ -1965,7 +1973,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="21" t="s">
+      <c r="A107" s="25" t="s">
         <v>106</v>
       </c>
       <c r="B107">
@@ -1976,7 +1984,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="21" t="s">
+      <c r="A108" s="25" t="s">
         <v>107</v>
       </c>
       <c r="B108">
@@ -1987,7 +1995,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="21" t="s">
+      <c r="A109" s="25" t="s">
         <v>108</v>
       </c>
       <c r="B109">
@@ -1998,7 +2006,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="21" t="s">
+      <c r="A110" s="25" t="s">
         <v>109</v>
       </c>
       <c r="B110">
@@ -2009,7 +2017,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="21" t="s">
+      <c r="A111" s="25" t="s">
         <v>110</v>
       </c>
       <c r="B111">
@@ -2020,7 +2028,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="21" t="s">
+      <c r="A112" s="25" t="s">
         <v>111</v>
       </c>
       <c r="B112">
@@ -2031,7 +2039,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="21" t="s">
+      <c r="A113" s="25" t="s">
         <v>112</v>
       </c>
       <c r="B113">
@@ -2042,7 +2050,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="21" t="s">
+      <c r="A114" s="25" t="s">
         <v>113</v>
       </c>
       <c r="B114">
@@ -2053,7 +2061,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="21" t="s">
+      <c r="A115" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B115">
@@ -2064,7 +2072,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="21" t="s">
+      <c r="A116" s="25" t="s">
         <v>115</v>
       </c>
       <c r="B116">
@@ -2075,7 +2083,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="21" t="s">
+      <c r="A117" s="25" t="s">
         <v>116</v>
       </c>
       <c r="B117">
@@ -2086,7 +2094,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="21" t="s">
+      <c r="A118" s="25" t="s">
         <v>117</v>
       </c>
       <c r="B118">
@@ -2097,7 +2105,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="21" t="s">
+      <c r="A119" s="25" t="s">
         <v>118</v>
       </c>
       <c r="B119">
@@ -2108,7 +2116,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="21" t="s">
+      <c r="A120" s="25" t="s">
         <v>119</v>
       </c>
       <c r="B120">
@@ -2119,7 +2127,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="21" t="s">
+      <c r="A121" s="25" t="s">
         <v>120</v>
       </c>
       <c r="B121">
@@ -2130,7 +2138,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="21" t="s">
+      <c r="A122" s="25" t="s">
         <v>121</v>
       </c>
       <c r="B122">
@@ -2141,7 +2149,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="21" t="s">
+      <c r="A123" s="25" t="s">
         <v>122</v>
       </c>
       <c r="B123">
@@ -2152,7 +2160,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="21" t="s">
+      <c r="A124" s="25" t="s">
         <v>123</v>
       </c>
       <c r="B124">
@@ -2163,7 +2171,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="21" t="s">
+      <c r="A125" s="25" t="s">
         <v>124</v>
       </c>
       <c r="B125">
@@ -2174,7 +2182,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="21" t="s">
+      <c r="A126" s="25" t="s">
         <v>125</v>
       </c>
       <c r="B126">
@@ -2185,7 +2193,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="21" t="s">
+      <c r="A127" s="25" t="s">
         <v>126</v>
       </c>
       <c r="B127">
@@ -2196,7 +2204,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="21" t="s">
+      <c r="A128" s="25" t="s">
         <v>127</v>
       </c>
       <c r="B128">
@@ -2207,7 +2215,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="21" t="s">
+      <c r="A129" s="25" t="s">
         <v>128</v>
       </c>
       <c r="B129">
@@ -2218,7 +2226,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="21" t="s">
+      <c r="A130" s="25" t="s">
         <v>129</v>
       </c>
       <c r="B130">
@@ -2229,7 +2237,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="21" t="s">
+      <c r="A131" s="25" t="s">
         <v>130</v>
       </c>
       <c r="B131">
@@ -2240,7 +2248,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="21" t="s">
+      <c r="A132" s="25" t="s">
         <v>131</v>
       </c>
       <c r="B132">
@@ -2251,7 +2259,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="21" t="s">
+      <c r="A133" s="25" t="s">
         <v>132</v>
       </c>
       <c r="B133">
@@ -2262,7 +2270,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="21" t="s">
+      <c r="A134" s="25" t="s">
         <v>133</v>
       </c>
       <c r="B134">
@@ -2273,7 +2281,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="21" t="s">
+      <c r="A135" s="25" t="s">
         <v>134</v>
       </c>
       <c r="B135">
@@ -2284,7 +2292,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="21" t="s">
+      <c r="A136" s="25" t="s">
         <v>135</v>
       </c>
       <c r="B136">
@@ -2295,7 +2303,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="21" t="s">
+      <c r="A137" s="25" t="s">
         <v>136</v>
       </c>
       <c r="B137">
@@ -2306,7 +2314,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="21" t="s">
+      <c r="A138" s="25" t="s">
         <v>137</v>
       </c>
       <c r="B138">
@@ -2317,7 +2325,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="21" t="s">
+      <c r="A139" s="25" t="s">
         <v>138</v>
       </c>
       <c r="B139">
@@ -2328,7 +2336,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="21" t="s">
+      <c r="A140" s="25" t="s">
         <v>139</v>
       </c>
       <c r="B140">
@@ -2339,7 +2347,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="21" t="s">
+      <c r="A141" s="25" t="s">
         <v>140</v>
       </c>
       <c r="B141">
@@ -2350,7 +2358,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="21" t="s">
+      <c r="A142" s="25" t="s">
         <v>141</v>
       </c>
       <c r="B142">
@@ -2361,7 +2369,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="21" t="s">
+      <c r="A143" s="25" t="s">
         <v>142</v>
       </c>
       <c r="B143">
@@ -2372,7 +2380,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="21" t="s">
+      <c r="A144" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B144">
@@ -2383,7 +2391,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="21" t="s">
+      <c r="A145" s="25" t="s">
         <v>144</v>
       </c>
       <c r="B145">
@@ -2394,7 +2402,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="21" t="s">
+      <c r="A146" s="25" t="s">
         <v>145</v>
       </c>
       <c r="B146">
@@ -2405,7 +2413,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="21" t="s">
+      <c r="A147" s="25" t="s">
         <v>146</v>
       </c>
       <c r="B147">
@@ -2416,7 +2424,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="21" t="s">
+      <c r="A148" s="25" t="s">
         <v>147</v>
       </c>
       <c r="B148">
@@ -2427,7 +2435,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="21" t="s">
+      <c r="A149" s="25" t="s">
         <v>148</v>
       </c>
       <c r="B149">
@@ -2438,7 +2446,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="21" t="s">
+      <c r="A150" s="25" t="s">
         <v>149</v>
       </c>
       <c r="B150">
@@ -2449,7 +2457,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="21" t="s">
+      <c r="A151" s="25" t="s">
         <v>150</v>
       </c>
       <c r="B151">
@@ -2460,7 +2468,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="21" t="s">
+      <c r="A152" s="25" t="s">
         <v>151</v>
       </c>
       <c r="B152">
@@ -2471,7 +2479,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="21" t="s">
+      <c r="A153" s="25" t="s">
         <v>152</v>
       </c>
       <c r="B153">
@@ -2482,7 +2490,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="21" t="s">
+      <c r="A154" s="25" t="s">
         <v>153</v>
       </c>
       <c r="B154">
@@ -2493,7 +2501,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="21" t="s">
+      <c r="A155" s="25" t="s">
         <v>154</v>
       </c>
       <c r="B155">
@@ -2504,7 +2512,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="21" t="s">
+      <c r="A156" s="25" t="s">
         <v>155</v>
       </c>
       <c r="B156">
@@ -2515,7 +2523,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="21" t="s">
+      <c r="A157" s="25" t="s">
         <v>156</v>
       </c>
       <c r="B157">
@@ -2526,7 +2534,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="21" t="s">
+      <c r="A158" s="25" t="s">
         <v>157</v>
       </c>
       <c r="B158">
@@ -2537,7 +2545,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="21" t="s">
+      <c r="A159" s="25" t="s">
         <v>158</v>
       </c>
       <c r="B159">
@@ -2548,7 +2556,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="21" t="s">
+      <c r="A160" s="25" t="s">
         <v>159</v>
       </c>
       <c r="B160">
@@ -2559,7 +2567,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="21" t="s">
+      <c r="A161" s="25" t="s">
         <v>160</v>
       </c>
       <c r="B161">
@@ -2570,7 +2578,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="21" t="s">
+      <c r="A162" s="25" t="s">
         <v>161</v>
       </c>
       <c r="B162">
@@ -2581,7 +2589,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="21" t="s">
+      <c r="A163" s="25" t="s">
         <v>162</v>
       </c>
       <c r="B163">
@@ -2592,7 +2600,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="21" t="s">
+      <c r="A164" s="25" t="s">
         <v>163</v>
       </c>
       <c r="B164">
@@ -2603,7 +2611,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="21" t="s">
+      <c r="A165" s="25" t="s">
         <v>164</v>
       </c>
       <c r="B165">
@@ -2614,7 +2622,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="21" t="s">
+      <c r="A166" s="25" t="s">
         <v>165</v>
       </c>
       <c r="B166">
@@ -2625,7 +2633,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="21" t="s">
+      <c r="A167" s="25" t="s">
         <v>166</v>
       </c>
       <c r="B167">
@@ -2636,7 +2644,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="21" t="s">
+      <c r="A168" s="25" t="s">
         <v>167</v>
       </c>
       <c r="B168">
@@ -2647,7 +2655,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="21" t="s">
+      <c r="A169" s="25" t="s">
         <v>168</v>
       </c>
       <c r="B169">
@@ -2658,7 +2666,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="21" t="s">
+      <c r="A170" s="25" t="s">
         <v>169</v>
       </c>
       <c r="B170">
@@ -2669,7 +2677,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="21" t="s">
+      <c r="A171" s="25" t="s">
         <v>170</v>
       </c>
       <c r="B171">
@@ -2680,7 +2688,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="21" t="s">
+      <c r="A172" s="25" t="s">
         <v>171</v>
       </c>
       <c r="B172">
@@ -2691,7 +2699,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="21" t="s">
+      <c r="A173" s="25" t="s">
         <v>172</v>
       </c>
       <c r="B173">
@@ -2702,7 +2710,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="21" t="s">
+      <c r="A174" s="25" t="s">
         <v>173</v>
       </c>
       <c r="B174">
@@ -2713,7 +2721,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="21" t="s">
+      <c r="A175" s="25" t="s">
         <v>174</v>
       </c>
       <c r="B175">
@@ -2724,7 +2732,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="21" t="s">
+      <c r="A176" s="25" t="s">
         <v>175</v>
       </c>
       <c r="B176">
@@ -2735,7 +2743,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="21" t="s">
+      <c r="A177" s="25" t="s">
         <v>176</v>
       </c>
       <c r="B177">
@@ -2746,7 +2754,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="21" t="s">
+      <c r="A178" s="25" t="s">
         <v>177</v>
       </c>
       <c r="B178">
@@ -2757,7 +2765,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="21" t="s">
+      <c r="A179" s="25" t="s">
         <v>178</v>
       </c>
       <c r="B179">
@@ -2768,7 +2776,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="21" t="s">
+      <c r="A180" s="25" t="s">
         <v>179</v>
       </c>
       <c r="B180">
@@ -2779,7 +2787,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="21" t="s">
+      <c r="A181" s="25" t="s">
         <v>180</v>
       </c>
       <c r="B181">
@@ -2790,7 +2798,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="21" t="s">
+      <c r="A182" s="25" t="s">
         <v>181</v>
       </c>
       <c r="B182">
@@ -2801,7 +2809,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="21" t="s">
+      <c r="A183" s="25" t="s">
         <v>182</v>
       </c>
       <c r="B183">
@@ -2812,7 +2820,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="21" t="s">
+      <c r="A184" s="25" t="s">
         <v>183</v>
       </c>
       <c r="B184">
@@ -2823,7 +2831,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="21" t="s">
+      <c r="A185" s="25" t="s">
         <v>184</v>
       </c>
       <c r="B185">
@@ -2834,7 +2842,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="21" t="s">
+      <c r="A186" s="25" t="s">
         <v>185</v>
       </c>
       <c r="B186">
@@ -2845,7 +2853,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="21" t="s">
+      <c r="A187" s="25" t="s">
         <v>186</v>
       </c>
       <c r="B187">
@@ -2856,7 +2864,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="21" t="s">
+      <c r="A188" s="25" t="s">
         <v>187</v>
       </c>
       <c r="B188">
@@ -2867,7 +2875,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="21" t="s">
+      <c r="A189" s="25" t="s">
         <v>188</v>
       </c>
       <c r="B189">
@@ -2878,7 +2886,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="21" t="s">
+      <c r="A190" s="25" t="s">
         <v>189</v>
       </c>
       <c r="B190">
@@ -2889,7 +2897,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="21" t="s">
+      <c r="A191" s="25" t="s">
         <v>190</v>
       </c>
       <c r="B191">
@@ -2900,7 +2908,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="21" t="s">
+      <c r="A192" s="25" t="s">
         <v>191</v>
       </c>
       <c r="B192">
@@ -2911,7 +2919,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="21" t="s">
+      <c r="A193" s="25" t="s">
         <v>192</v>
       </c>
       <c r="B193">
@@ -2922,7 +2930,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="21" t="s">
+      <c r="A194" s="25" t="s">
         <v>193</v>
       </c>
       <c r="B194">
@@ -2933,7 +2941,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="21" t="s">
+      <c r="A195" s="25" t="s">
         <v>194</v>
       </c>
       <c r="B195">
@@ -2944,7 +2952,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="21" t="s">
+      <c r="A196" s="25" t="s">
         <v>195</v>
       </c>
       <c r="B196">
@@ -2955,7 +2963,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="21" t="s">
+      <c r="A197" s="25" t="s">
         <v>196</v>
       </c>
       <c r="B197">
@@ -2966,7 +2974,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="21" t="s">
+      <c r="A198" s="25" t="s">
         <v>197</v>
       </c>
       <c r="B198">
@@ -2977,7 +2985,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="21" t="s">
+      <c r="A199" s="25" t="s">
         <v>198</v>
       </c>
       <c r="B199">
@@ -2988,7 +2996,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="21" t="s">
+      <c r="A200" s="25" t="s">
         <v>199</v>
       </c>
       <c r="B200">
@@ -2999,7 +3007,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="21" t="s">
+      <c r="A201" s="25" t="s">
         <v>200</v>
       </c>
       <c r="B201">
@@ -3010,7 +3018,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="21" t="s">
+      <c r="A202" s="25" t="s">
         <v>201</v>
       </c>
       <c r="B202">
@@ -3021,7 +3029,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="21" t="s">
+      <c r="A203" s="25" t="s">
         <v>202</v>
       </c>
       <c r="B203">
@@ -3032,7 +3040,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="21" t="s">
+      <c r="A204" s="25" t="s">
         <v>203</v>
       </c>
       <c r="B204">
@@ -3043,7 +3051,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="21" t="s">
+      <c r="A205" s="25" t="s">
         <v>204</v>
       </c>
       <c r="B205">
@@ -3054,7 +3062,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="21" t="s">
+      <c r="A206" s="25" t="s">
         <v>205</v>
       </c>
       <c r="B206">
@@ -3065,7 +3073,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="21" t="s">
+      <c r="A207" s="25" t="s">
         <v>206</v>
       </c>
       <c r="B207">
@@ -3076,7 +3084,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="21" t="s">
+      <c r="A208" s="25" t="s">
         <v>207</v>
       </c>
       <c r="B208">
@@ -3087,7 +3095,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="21" t="s">
+      <c r="A209" s="25" t="s">
         <v>208</v>
       </c>
       <c r="B209">
@@ -3098,7 +3106,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="21" t="s">
+      <c r="A210" s="25" t="s">
         <v>209</v>
       </c>
       <c r="B210">
@@ -3109,7 +3117,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="21" t="s">
+      <c r="A211" s="25" t="s">
         <v>210</v>
       </c>
       <c r="B211">
@@ -3120,7 +3128,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="21" t="s">
+      <c r="A212" s="25" t="s">
         <v>211</v>
       </c>
       <c r="B212">
@@ -3131,7 +3139,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="21" t="s">
+      <c r="A213" s="25" t="s">
         <v>212</v>
       </c>
       <c r="B213">
@@ -3142,7 +3150,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="21" t="s">
+      <c r="A214" s="25" t="s">
         <v>213</v>
       </c>
       <c r="B214">
@@ -3153,7 +3161,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="21" t="s">
+      <c r="A215" s="25" t="s">
         <v>214</v>
       </c>
       <c r="B215">
@@ -3164,7 +3172,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="21" t="s">
+      <c r="A216" s="25" t="s">
         <v>215</v>
       </c>
       <c r="B216">
@@ -3175,7 +3183,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="21" t="s">
+      <c r="A217" s="25" t="s">
         <v>216</v>
       </c>
       <c r="B217">
@@ -3186,7 +3194,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="21" t="s">
+      <c r="A218" s="25" t="s">
         <v>217</v>
       </c>
       <c r="B218">
@@ -3197,7 +3205,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="21" t="s">
+      <c r="A219" s="25" t="s">
         <v>218</v>
       </c>
       <c r="B219">
@@ -3208,7 +3216,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="21" t="s">
+      <c r="A220" s="25" t="s">
         <v>219</v>
       </c>
       <c r="B220">
@@ -3219,7 +3227,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="21" t="s">
+      <c r="A221" s="25" t="s">
         <v>220</v>
       </c>
       <c r="B221">
@@ -3230,7 +3238,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="21" t="s">
+      <c r="A222" s="25" t="s">
         <v>221</v>
       </c>
       <c r="B222">
@@ -3241,7 +3249,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="21" t="s">
+      <c r="A223" s="25" t="s">
         <v>222</v>
       </c>
       <c r="B223">
@@ -3252,7 +3260,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="21" t="s">
+      <c r="A224" s="25" t="s">
         <v>223</v>
       </c>
       <c r="B224">
@@ -3263,7 +3271,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="21" t="s">
+      <c r="A225" s="25" t="s">
         <v>224</v>
       </c>
       <c r="B225">
@@ -3274,7 +3282,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="21" t="s">
+      <c r="A226" s="25" t="s">
         <v>225</v>
       </c>
       <c r="B226">
@@ -3285,7 +3293,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="21" t="s">
+      <c r="A227" s="25" t="s">
         <v>226</v>
       </c>
       <c r="B227">
@@ -3296,7 +3304,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="21" t="s">
+      <c r="A228" s="25" t="s">
         <v>227</v>
       </c>
       <c r="B228">

--- a/SourceDataTables/FigS12a.xlsx
+++ b/SourceDataTables/FigS12a.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="230">
   <si>
     <t>Gene</t>
   </si>
@@ -723,7 +723,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -737,31 +737,11 @@
     <border/>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -769,26 +749,6 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -807,2508 +767,2508 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="5" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.4812088165749704</v>
+        <v>-1.4811644076366814</v>
       </c>
       <c r="C2">
         <v>0.45573461830563966</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.41676325166987682</v>
+        <v>0.4169007167019389</v>
       </c>
       <c r="C3">
         <v>0.55360338933050313</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.55455443944972671</v>
+        <v>0.55387393558644238</v>
       </c>
       <c r="C4">
         <v>1.0870641913850654</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-0.22409127894583028</v>
+        <v>-0.22380610824825709</v>
       </c>
       <c r="C5">
         <v>0.95865364344077975</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.56275067180609628</v>
+        <v>0.56272813394126353</v>
       </c>
       <c r="C6">
         <v>1.5247600494177631</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.088289851421885848</v>
+        <v>-0.089539928526865847</v>
       </c>
       <c r="C7">
         <v>2.3559498582251042</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.95537879598195097</v>
+        <v>0.95508853453661047</v>
       </c>
       <c r="C8">
         <v>0.82719453501630802</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.55976993109325879</v>
+        <v>0.55960642778496483</v>
       </c>
       <c r="C9">
         <v>-0.65926630937639852</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.23519148019267533</v>
+        <v>0.23588112789702725</v>
       </c>
       <c r="C10">
         <v>0.30337721714413191</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.3731554374439749</v>
+        <v>1.3729598258560876</v>
       </c>
       <c r="C11">
         <v>2.1667687121469439</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.1983987950922996</v>
+        <v>1.1983170776242016</v>
       </c>
       <c r="C12">
         <v>0.91447522428188233</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-1.2602454990298826</v>
+        <v>-1.2596835596137257</v>
       </c>
       <c r="C13">
         <v>-1.0222338626138063</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.5400476150091984</v>
+        <v>1.5397174169299468</v>
       </c>
       <c r="C14">
         <v>1.935940221757052</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.99141345488210386</v>
+        <v>0.9907084413069327</v>
       </c>
       <c r="C15">
         <v>-0.93579462260926094</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1.2582712769144409</v>
+        <v>1.2582110501281194</v>
       </c>
       <c r="C16">
         <v>0.83221679797716164</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.40176919718580456</v>
+        <v>0.40097467990491392</v>
       </c>
       <c r="C17">
         <v>0.066369295521604338</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.97930010808082735</v>
+        <v>0.97846033648577846</v>
       </c>
       <c r="C18">
         <v>0.63159710615981757</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.80044802804510451</v>
+        <v>0.80100783632506833</v>
       </c>
       <c r="C19">
         <v>0.66784080601252105</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.38013076454918299</v>
+        <v>0.37951566883102067</v>
       </c>
       <c r="C20">
         <v>0.67950322482023873</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-0.82634563510050263</v>
+        <v>-0.8259208180801878</v>
       </c>
       <c r="C21">
         <v>-1.5012801454868276</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-0.87770874028581602</v>
+        <v>-0.87817838214202382</v>
       </c>
       <c r="C22">
         <v>-0.025492818832215006</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-0.23782675821751068</v>
+        <v>-0.23720602853196673</v>
       </c>
       <c r="C23">
         <v>0.46549937084182252</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.71706235332267343</v>
+        <v>0.71762047473432633</v>
       </c>
       <c r="C24">
         <v>1.1481108709467369</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.3509722646645746</v>
+        <v>0.35169335472060392</v>
       </c>
       <c r="C25">
         <v>-2.0332276525742872</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1.4747081824718768</v>
+        <v>1.4744930469770345</v>
       </c>
       <c r="C26">
         <v>0.40313482092204295</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-1.5457256208324821</v>
+        <v>-1.545573338621504</v>
       </c>
       <c r="C27">
         <v>0.13990127011315212</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-0.49848865840357137</v>
+        <v>-0.49806397950425396</v>
       </c>
       <c r="C28">
         <v>-1.6612150520569333</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.59900385144632884</v>
+        <v>0.59914737777589233</v>
       </c>
       <c r="C29">
         <v>1.410378442533976</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.11541835779859497</v>
+        <v>0.11391330728394614</v>
       </c>
       <c r="C30">
         <v>-0.029705772949304907</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-0.61771133070594897</v>
+        <v>-0.61745180745289341</v>
       </c>
       <c r="C31">
         <v>0.059477973299086127</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-1.8287949581931766</v>
+        <v>-1.8285386643169173</v>
       </c>
       <c r="C32">
         <v>-1.6841492443048056</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-1.8488314376218649</v>
+        <v>-1.8489265108943491</v>
       </c>
       <c r="C33">
         <v>0.21001709660520718</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.033511629168146033</v>
+        <v>0.033043575883614645</v>
       </c>
       <c r="C34">
         <v>0.89028334285185229</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.43189488517995672</v>
+        <v>0.43255571645336938</v>
       </c>
       <c r="C35">
         <v>-0.35819046366918122</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.86191726329763574</v>
+        <v>0.86185659590242036</v>
       </c>
       <c r="C36">
         <v>0.45174028244608538</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-1.2496315179323334</v>
+        <v>-1.2503028083116374</v>
       </c>
       <c r="C37">
         <v>-1.5456158239248456</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.92050126534685595</v>
+        <v>0.92024903714019002</v>
       </c>
       <c r="C38">
         <v>-0.33858580573953162</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-0.5156238983388749</v>
+        <v>-0.51416953047672975</v>
       </c>
       <c r="C39">
         <v>-0.12565012799665026</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.74402091489937783</v>
+        <v>0.74337307608118719</v>
       </c>
       <c r="C40">
         <v>-0.52273186893000745</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.98168752609292176</v>
+        <v>0.98120373818402651</v>
       </c>
       <c r="C41">
         <v>0.49277942768494687</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-0.22509396264885576</v>
+        <v>-0.22505394507477405</v>
       </c>
       <c r="C42">
         <v>-1.1485852494485722</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-1.5042557711727109</v>
+        <v>-1.5045541985455548</v>
       </c>
       <c r="C43">
         <v>-2.1605609189639816</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-0.55909199305063306</v>
+        <v>-0.55942933582654486</v>
       </c>
       <c r="C44">
         <v>-0.53027270391185988</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.2858215509279059</v>
+        <v>0.28501903385376698</v>
       </c>
       <c r="C45">
         <v>0.63273207738514436</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-2.048625203015098</v>
+        <v>-2.0491675604559867</v>
       </c>
       <c r="C46">
         <v>-0.77843837863591459</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-0.94473085788865896</v>
+        <v>-0.94463734707294855</v>
       </c>
       <c r="C47">
         <v>0.65409877310247855</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.89665938128295741</v>
+        <v>0.89649430710059164</v>
       </c>
       <c r="C48">
         <v>0.74298206647206588</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-1.7832945377411631</v>
+        <v>-1.783100048314193</v>
       </c>
       <c r="C49">
         <v>-0.7961650078851279</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.493693682384993</v>
+        <v>0.49432375987984845</v>
       </c>
       <c r="C50">
         <v>-1.5671868230697565</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.12636803644455161</v>
+        <v>0.12670460133158362</v>
       </c>
       <c r="C51">
         <v>0.85014605455044412</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1.1310975965478929</v>
+        <v>1.1314349201269522</v>
       </c>
       <c r="C52">
         <v>0.86076466857363276</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-0.2531920053122847</v>
+        <v>-0.25251341058746662</v>
       </c>
       <c r="C53">
         <v>-0.14365804818456393</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-2.1599760909388066</v>
+        <v>-2.1601312548351306</v>
       </c>
       <c r="C54">
         <v>-1.4169148797228037</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-2.181360651143383</v>
+        <v>-2.1815708475796169</v>
       </c>
       <c r="C55">
         <v>-0.35747811967835064</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-1.6544231077080729</v>
+        <v>-1.6540315998730755</v>
       </c>
       <c r="C56">
         <v>-0.43651620754337911</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1.465674266567784</v>
+        <v>1.4654304308818424</v>
       </c>
       <c r="C57">
         <v>2.1669677834135705</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-1.6794992158564295</v>
+        <v>-1.6795522644042966</v>
       </c>
       <c r="C58">
         <v>-1.3062824898855738</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1.3740116429839533</v>
+        <v>1.3736922652432109</v>
       </c>
       <c r="C59">
         <v>0.96682965370196017</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-0.51983787302290707</v>
+        <v>-0.52007749238912337</v>
       </c>
       <c r="C60">
         <v>-0.7520250938068157</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-0.1244764051078313</v>
+        <v>-0.12371167235181929</v>
       </c>
       <c r="C61">
         <v>-0.40354605109171782</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.8460151414408954</v>
+        <v>0.84636339132724947</v>
       </c>
       <c r="C62">
         <v>0.78062032974338447</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.62498926134606769</v>
+        <v>0.62555728553507972</v>
       </c>
       <c r="C63">
         <v>1.1487961934310156</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1.0018296045421486</v>
+        <v>1.0016037825329787</v>
       </c>
       <c r="C64">
         <v>0.077006890284516946</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-0.69245272360963939</v>
+        <v>-0.69259863909653729</v>
       </c>
       <c r="C65">
         <v>-0.75188599986571281</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-1.4755462492906013</v>
+        <v>-1.4763420285328295</v>
       </c>
       <c r="C66">
         <v>-1.235163266293557</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-1.4920963319845797</v>
+        <v>-1.4918947969287084</v>
       </c>
       <c r="C67">
         <v>-0.72942181875150391</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1.1476141212279682</v>
+        <v>1.14781811110904</v>
       </c>
       <c r="C68">
         <v>0.68996125000733877</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-1.2433739205622121</v>
+        <v>-1.2422771187919601</v>
       </c>
       <c r="C69">
         <v>-0.59078538595595376</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.18302266646232787</v>
+        <v>0.18350954180088225</v>
       </c>
       <c r="C70">
         <v>-0.61022993070051013</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.51410008681193797</v>
+        <v>0.51381101996963396</v>
       </c>
       <c r="C71">
         <v>1.3728970761410197</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-1.4977610008031039</v>
+        <v>-1.4972488417681789</v>
       </c>
       <c r="C72">
         <v>-0.36653086797441387</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.58665984565289642</v>
+        <v>0.58639524302292978</v>
       </c>
       <c r="C73">
         <v>0.59221007802859282</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>1.3152447685087136</v>
+        <v>1.3154272908765836</v>
       </c>
       <c r="C74">
         <v>0.69538555130959911</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.68047083899907668</v>
+        <v>0.68123202316893972</v>
       </c>
       <c r="C75">
         <v>-0.33241828843183002</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-1.3328173786151687</v>
+        <v>-1.3327582580212121</v>
       </c>
       <c r="C76">
         <v>-1.7620710472336152</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-1.6981127603488022</v>
+        <v>-1.6992381627718942</v>
       </c>
       <c r="C77">
         <v>-1.6031954154304149</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-0.78788657087574721</v>
+        <v>-0.78780765239691475</v>
       </c>
       <c r="C78">
         <v>0.96312770730433384</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.16489680665285089</v>
+        <v>0.16483764034266266</v>
       </c>
       <c r="C79">
         <v>1.008573441915535</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.0079440626568020346</v>
+        <v>0.007809191639742581</v>
       </c>
       <c r="C80">
         <v>-0.1715411851898459</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-1.9671506031894554</v>
+        <v>-1.9676495587256571</v>
       </c>
       <c r="C81">
         <v>-2.0986012612915816</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-1.1623003907148828</v>
+        <v>-1.1624841503794208</v>
       </c>
       <c r="C82">
         <v>-0.63448978492279717</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1.479437261130818</v>
+        <v>1.4793589791565598</v>
       </c>
       <c r="C83">
         <v>0.68337015416315006</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-2.1727438661349909</v>
+        <v>-2.173262262949617</v>
       </c>
       <c r="C84">
         <v>-0.81525791064374964</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-0.33244033681464136</v>
+        <v>-0.33262167790335995</v>
       </c>
       <c r="C85">
         <v>-0.95220070879477281</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.16434487516411658</v>
+        <v>0.16391837061645745</v>
       </c>
       <c r="C86">
         <v>-0.17791375337668869</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-0.43462828033146611</v>
+        <v>-0.43628161747580696</v>
       </c>
       <c r="C87">
         <v>-0.064085487150962142</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-1.8017741962140721</v>
+        <v>-1.8024043517641593</v>
       </c>
       <c r="C88">
         <v>-1.126150354845656</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.18332027909344295</v>
+        <v>0.18465101430960898</v>
       </c>
       <c r="C89">
         <v>-0.49934530993539833</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.16955723642843029</v>
+        <v>0.16966641216584802</v>
       </c>
       <c r="C90">
         <v>-2.1205741175775201</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1.5606175236630815</v>
+        <v>1.56075272980994</v>
       </c>
       <c r="C91">
         <v>1.734609409051437</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1.2777501382725887</v>
+        <v>1.2774936494367604</v>
       </c>
       <c r="C92">
         <v>0.82321927049666732</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="25" t="s">
+      <c r="A93" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.37286039021703499</v>
+        <v>0.37327526578757586</v>
       </c>
       <c r="C93">
         <v>0.32974912033662501</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="25" t="s">
+      <c r="A94" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>1.2395357777310925</v>
+        <v>1.239495160054952</v>
       </c>
       <c r="C94">
         <v>0.99290588317565176</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="25" t="s">
+      <c r="A95" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.98453643335066288</v>
+        <v>0.98441583790188303</v>
       </c>
       <c r="C95">
         <v>0.96185633749354482</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="25" t="s">
+      <c r="A96" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.86948619916516123</v>
+        <v>0.86989687589733944</v>
       </c>
       <c r="C96">
         <v>0.89155527891382635</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="25" t="s">
+      <c r="A97" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.69124156493217592</v>
+        <v>0.69196069005501004</v>
       </c>
       <c r="C97">
         <v>0.81041275249451905</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="25" t="s">
+      <c r="A98" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.94739560925244126</v>
+        <v>0.94793803556011746</v>
       </c>
       <c r="C98">
         <v>0.97544788348864042</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="25" t="s">
+      <c r="A99" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.82394117865058492</v>
+        <v>0.82424336369286855</v>
       </c>
       <c r="C99">
         <v>0.52338145373046152</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="25" t="s">
+      <c r="A100" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.73730798346421123</v>
+        <v>0.73741789624218612</v>
       </c>
       <c r="C100">
         <v>0.88022201059497185</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="25" t="s">
+      <c r="A101" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0.21928502354152554</v>
+        <v>0.21988919928383002</v>
       </c>
       <c r="C101">
         <v>0.57304745842406402</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="25" t="s">
+      <c r="A102" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-0.074967152263331782</v>
+        <v>-0.075776215641247674</v>
       </c>
       <c r="C102">
         <v>-1.5289644150759092</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="25" t="s">
+      <c r="A103" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B103">
-        <v>1.192714137992537</v>
+        <v>1.1926385213044632</v>
       </c>
       <c r="C103">
         <v>0.95828021210924319</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="25" t="s">
+      <c r="A104" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-1.3043429756248777</v>
+        <v>-1.3055588207290079</v>
       </c>
       <c r="C104">
         <v>-0.23248666433972023</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="25" t="s">
+      <c r="A105" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-1.5826337474492183</v>
+        <v>-1.5825678788611026</v>
       </c>
       <c r="C105">
         <v>-1.5713300829909869</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="25" t="s">
+      <c r="A106" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B106">
-        <v>0.36208357854274836</v>
+        <v>0.36252643947735735</v>
       </c>
       <c r="C106">
         <v>-0.45473293851830282</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="25" t="s">
+      <c r="A107" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B107">
-        <v>1.0362624687241555</v>
+        <v>1.0362849662017295</v>
       </c>
       <c r="C107">
         <v>0.63252790985785201</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="25" t="s">
+      <c r="A108" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.58220071084765579</v>
+        <v>0.5811660919319509</v>
       </c>
       <c r="C108">
         <v>0.29576546486386013</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="25" t="s">
+      <c r="A109" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B109">
-        <v>1.3069339334323158</v>
+        <v>1.307239720388631</v>
       </c>
       <c r="C109">
         <v>0.86350772521444452</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="25" t="s">
+      <c r="A110" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B110">
-        <v>-0.41177755111412234</v>
+        <v>-0.41127001741136482</v>
       </c>
       <c r="C110">
         <v>0.37536584015567304</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="25" t="s">
+      <c r="A111" s="5" t="s">
         <v>110</v>
       </c>
       <c r="B111">
-        <v>-0.52324854887359407</v>
+        <v>-0.5236726977912316</v>
       </c>
       <c r="C111">
         <v>-1.0906424644328927</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="25" t="s">
+      <c r="A112" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B112">
-        <v>-0.30389708562811774</v>
+        <v>-0.30308754859729076</v>
       </c>
       <c r="C112">
         <v>1.1198787193610191</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="25" t="s">
+      <c r="A113" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B113">
-        <v>1.0373826884182433</v>
+        <v>1.0365779226875058</v>
       </c>
       <c r="C113">
         <v>-0.83822157060329361</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="25" t="s">
+      <c r="A114" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B114">
-        <v>-1.7309123682012648</v>
+        <v>-1.7309599035493037</v>
       </c>
       <c r="C114">
         <v>0.32422205576929625</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="25" t="s">
+      <c r="A115" s="5" t="s">
         <v>114</v>
       </c>
       <c r="B115">
-        <v>1.5073611774207274</v>
+        <v>1.506700259442135</v>
       </c>
       <c r="C115">
         <v>1.4711153600473619</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="25" t="s">
+      <c r="A116" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B116">
-        <v>1.0059229358673767</v>
+        <v>1.0051067215114091</v>
       </c>
       <c r="C116">
         <v>1.3704292628762513</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="25" t="s">
+      <c r="A117" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B117">
-        <v>1.185887544533069</v>
+        <v>1.1859831095136171</v>
       </c>
       <c r="C117">
         <v>0.3599883152727878</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="25" t="s">
+      <c r="A118" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B118">
-        <v>-1.8258642295207563</v>
+        <v>-1.8259145774399201</v>
       </c>
       <c r="C118">
         <v>-1.3390770858198129</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="25" t="s">
+      <c r="A119" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0.34831135959528087</v>
+        <v>0.34827722615865581</v>
       </c>
       <c r="C119">
         <v>-0.14834912215228796</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="25" t="s">
+      <c r="A120" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B120">
-        <v>1.4495769477546436</v>
+        <v>1.4498063554347143</v>
       </c>
       <c r="C120">
         <v>1.0206616136642908</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="25" t="s">
+      <c r="A121" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.22584979604149819</v>
+        <v>0.22665334916169083</v>
       </c>
       <c r="C121">
         <v>-0.013071714036679694</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="25" t="s">
+      <c r="A122" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B122">
-        <v>-0.60851892802076579</v>
+        <v>-0.60756457201882785</v>
       </c>
       <c r="C122">
         <v>-1.4635010668708033</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="25" t="s">
+      <c r="A123" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B123">
-        <v>1.1545411947340611</v>
+        <v>1.1550200225724911</v>
       </c>
       <c r="C123">
         <v>0.41695703499989278</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="25" t="s">
+      <c r="A124" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B124">
-        <v>-0.59793291389789993</v>
+        <v>-0.59849406596490107</v>
       </c>
       <c r="C124">
         <v>-1.2349221565389499</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="25" t="s">
+      <c r="A125" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B125">
-        <v>-0.44352596692922058</v>
+        <v>-0.44326813207069793</v>
       </c>
       <c r="C125">
         <v>-1.6423245954220014</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="25" t="s">
+      <c r="A126" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B126">
-        <v>0.27932998764104533</v>
+        <v>0.27862706551611222</v>
       </c>
       <c r="C126">
         <v>0.21308393567364778</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="25" t="s">
+      <c r="A127" s="5" t="s">
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.76276443286340068</v>
+        <v>0.76259981488684869</v>
       </c>
       <c r="C127">
         <v>-0.68274453311284844</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="25" t="s">
+      <c r="A128" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B128">
-        <v>-0.1888950481377358</v>
+        <v>-0.18814846702827731</v>
       </c>
       <c r="C128">
         <v>0.55171201977214634</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="25" t="s">
+      <c r="A129" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.60545776381314209</v>
+        <v>0.60461180657204205</v>
       </c>
       <c r="C129">
         <v>0.95778533122353071</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="25" t="s">
+      <c r="A130" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.76468446894896147</v>
+        <v>0.76449214923652986</v>
       </c>
       <c r="C130">
         <v>0.87679637212561734</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="25" t="s">
+      <c r="A131" s="5" t="s">
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.79779584872048337</v>
+        <v>0.79668213536072674</v>
       </c>
       <c r="C131">
         <v>-0.06041776497496204</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="25" t="s">
+      <c r="A132" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B132">
-        <v>0.6284357088854019</v>
+        <v>0.62841231181581647</v>
       </c>
       <c r="C132">
         <v>0.102050345546765</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="25" t="s">
+      <c r="A133" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B133">
-        <v>-0.0015725368482619178</v>
+        <v>-0.0018959462673507454</v>
       </c>
       <c r="C133">
         <v>-0.83430956766605002</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="25" t="s">
+      <c r="A134" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B134">
-        <v>-1.0209413293742204</v>
+        <v>-1.0199340376358268</v>
       </c>
       <c r="C134">
         <v>-1.9202849126018362</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="25" t="s">
+      <c r="A135" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B135">
-        <v>1.3601279302035305</v>
+        <v>1.3599755150316324</v>
       </c>
       <c r="C135">
         <v>1.194842788499729</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="25" t="s">
+      <c r="A136" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0.14356872282199074</v>
+        <v>0.14317370784965702</v>
       </c>
       <c r="C136">
         <v>-0.82210622042624915</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="25" t="s">
+      <c r="A137" s="5" t="s">
         <v>136</v>
       </c>
       <c r="B137">
-        <v>-1.7178856373784381</v>
+        <v>-1.7180011991921951</v>
       </c>
       <c r="C137">
         <v>-1.7007782522568602</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="25" t="s">
+      <c r="A138" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B138">
-        <v>-1.3088438880743125</v>
+        <v>-1.3088695873384859</v>
       </c>
       <c r="C138">
         <v>-1.5100456911818183</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="25" t="s">
+      <c r="A139" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.70914826010381382</v>
+        <v>0.70928103118972563</v>
       </c>
       <c r="C139">
         <v>0.6279183307606846</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="25" t="s">
+      <c r="A140" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B140">
-        <v>0.97666438191182847</v>
+        <v>0.97675605157055201</v>
       </c>
       <c r="C140">
         <v>-0.89261097088226449</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="25" t="s">
+      <c r="A141" s="5" t="s">
         <v>140</v>
       </c>
       <c r="B141">
-        <v>-1.1153044713222673</v>
+        <v>-1.1150159868661138</v>
       </c>
       <c r="C141">
         <v>-0.87610320863395963</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="25" t="s">
+      <c r="A142" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B142">
-        <v>-0.002670600241340151</v>
+        <v>-0.0028940317504263014</v>
       </c>
       <c r="C142">
         <v>0.52609350245637843</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="25" t="s">
+      <c r="A143" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.57178428008951065</v>
+        <v>0.57160959044505377</v>
       </c>
       <c r="C143">
         <v>-0.86888545392826633</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="25" t="s">
+      <c r="A144" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0.75272334276259034</v>
+        <v>0.75266304061200107</v>
       </c>
       <c r="C144">
         <v>0.75660887859096848</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="25" t="s">
+      <c r="A145" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B145">
-        <v>-0.94763442188448732</v>
+        <v>-0.94657038141604777</v>
       </c>
       <c r="C145">
         <v>-1.6556849523832524</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="25" t="s">
+      <c r="A146" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B146">
-        <v>-0.099358244802353432</v>
+        <v>-0.099045815404800633</v>
       </c>
       <c r="C146">
         <v>0.46513228152355884</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="25" t="s">
+      <c r="A147" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.5991042272173388</v>
+        <v>0.59954745553881494</v>
       </c>
       <c r="C147">
         <v>0.17833667915277882</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="25" t="s">
+      <c r="A148" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B148">
-        <v>-0.35406130968155475</v>
+        <v>-0.35472430946396072</v>
       </c>
       <c r="C148">
         <v>2.218491567645231</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="25" t="s">
+      <c r="A149" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B149">
-        <v>-0.02765750447395519</v>
+        <v>-0.026779993958540707</v>
       </c>
       <c r="C149">
         <v>0.47634799609639078</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="25" t="s">
+      <c r="A150" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B150">
-        <v>-0.21740885292062109</v>
+        <v>-0.21725087087934386</v>
       </c>
       <c r="C150">
         <v>0.69027055905467682</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="25" t="s">
+      <c r="A151" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B151">
-        <v>1.0925143857357966</v>
+        <v>1.0925054988213334</v>
       </c>
       <c r="C151">
         <v>-0.02869791379000473</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="25" t="s">
+      <c r="A152" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B152">
-        <v>0.7575091514510206</v>
+        <v>0.75809197572378362</v>
       </c>
       <c r="C152">
         <v>0.68789502208302933</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="25" t="s">
+      <c r="A153" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B153">
-        <v>-0.55204662911784363</v>
+        <v>-0.55312397321178197</v>
       </c>
       <c r="C153">
         <v>-0.36891161445696419</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="25" t="s">
+      <c r="A154" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B154">
-        <v>-0.61327003300426364</v>
+        <v>-0.61394144946630169</v>
       </c>
       <c r="C154">
         <v>-0.31839374148052746</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="25" t="s">
+      <c r="A155" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B155">
-        <v>-0.96052922452349654</v>
+        <v>-0.95961169474638808</v>
       </c>
       <c r="C155">
         <v>0.089842649497862609</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="25" t="s">
+      <c r="A156" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0.38385201272552605</v>
+        <v>0.38442309990129131</v>
       </c>
       <c r="C156">
         <v>0.12377026875335201</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="25" t="s">
+      <c r="A157" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B157">
-        <v>0.79163750557414936</v>
+        <v>0.79117248755021752</v>
       </c>
       <c r="C157">
         <v>0.29125119716616543</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="25" t="s">
+      <c r="A158" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B158">
-        <v>-0.15501290597542444</v>
+        <v>-0.15526711986853714</v>
       </c>
       <c r="C158">
         <v>-0.041644318484915052</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="25" t="s">
+      <c r="A159" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B159">
-        <v>1.5363394962601018</v>
+        <v>1.5360664631295702</v>
       </c>
       <c r="C159">
         <v>0.93117743718714374</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="25" t="s">
+      <c r="A160" s="5" t="s">
         <v>159</v>
       </c>
       <c r="B160">
-        <v>-0.22250628175414688</v>
+        <v>-0.22353904899412913</v>
       </c>
       <c r="C160">
         <v>-2.1417149696721971</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="25" t="s">
+      <c r="A161" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B161">
-        <v>-0.73025748747693575</v>
+        <v>-0.73022740442523526</v>
       </c>
       <c r="C161">
         <v>1.4002186052209393</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="25" t="s">
+      <c r="A162" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B162">
-        <v>-0.91873634693243422</v>
+        <v>-0.9189429770276476</v>
       </c>
       <c r="C162">
         <v>-0.84092537471195572</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="25" t="s">
+      <c r="A163" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B163">
-        <v>-0.73774105712581717</v>
+        <v>-0.73757783557238044</v>
       </c>
       <c r="C163">
         <v>0.35982969699082318</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="25" t="s">
+      <c r="A164" s="5" t="s">
         <v>163</v>
       </c>
       <c r="B164">
-        <v>-0.76299851281304487</v>
+        <v>-0.76245129479668339</v>
       </c>
       <c r="C164">
         <v>-0.46854364637207185</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="25" t="s">
+      <c r="A165" s="5" t="s">
         <v>164</v>
       </c>
       <c r="B165">
-        <v>0.56628812229052639</v>
+        <v>0.56579587490498051</v>
       </c>
       <c r="C165">
         <v>0.55097720693429175</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="25" t="s">
+      <c r="A166" s="5" t="s">
         <v>165</v>
       </c>
       <c r="B166">
-        <v>1.1047304410743921</v>
+        <v>1.1045885496720773</v>
       </c>
       <c r="C166">
         <v>1.0736234267555327</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="25" t="s">
+      <c r="A167" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B167">
-        <v>-0.67194271731231092</v>
+        <v>-0.67111016650441824</v>
       </c>
       <c r="C167">
         <v>-0.59959249448792939</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="25" t="s">
+      <c r="A168" s="5" t="s">
         <v>167</v>
       </c>
       <c r="B168">
-        <v>1.3311508393749187</v>
+        <v>1.3312779241074033</v>
       </c>
       <c r="C168">
         <v>1.0342463646451654</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="25" t="s">
+      <c r="A169" s="5" t="s">
         <v>168</v>
       </c>
       <c r="B169">
-        <v>0.51663144336207412</v>
+        <v>0.51667830672571546</v>
       </c>
       <c r="C169">
         <v>-2.336639533570481</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="25" t="s">
+      <c r="A170" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0.82795716394272012</v>
+        <v>0.82779176300529989</v>
       </c>
       <c r="C170">
         <v>0.56787115249082132</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="25" t="s">
+      <c r="A171" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B171">
-        <v>0.55879222098316095</v>
+        <v>0.55974224682088702</v>
       </c>
       <c r="C171">
         <v>0.84859298610010137</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="25" t="s">
+      <c r="A172" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B172">
-        <v>-1.0518404498365974</v>
+        <v>-1.0509093869711443</v>
       </c>
       <c r="C172">
         <v>-0.66324039609357421</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="25" t="s">
+      <c r="A173" s="5" t="s">
         <v>172</v>
       </c>
       <c r="B173">
-        <v>0.21535214584786219</v>
+        <v>0.21640852741489389</v>
       </c>
       <c r="C173">
         <v>0.42916035958964627</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="25" t="s">
+      <c r="A174" s="5" t="s">
         <v>173</v>
       </c>
       <c r="B174">
-        <v>-0.066330732190294936</v>
+        <v>-0.065525668634220158</v>
       </c>
       <c r="C174">
         <v>1.2132232113672357</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="25" t="s">
+      <c r="A175" s="5" t="s">
         <v>174</v>
       </c>
       <c r="B175">
-        <v>0.83090522876995387</v>
+        <v>0.83052178818452294</v>
       </c>
       <c r="C175">
         <v>0.88636991296162237</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="25" t="s">
+      <c r="A176" s="5" t="s">
         <v>175</v>
       </c>
       <c r="B176">
-        <v>1.0758315485238739</v>
+        <v>1.0754292481568144</v>
       </c>
       <c r="C176">
         <v>0.52312195213736312</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="25" t="s">
+      <c r="A177" s="5" t="s">
         <v>176</v>
       </c>
       <c r="B177">
-        <v>-1.2177519366084117</v>
+        <v>-1.2186388285193464</v>
       </c>
       <c r="C177">
         <v>-2.3851715183407474</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="25" t="s">
+      <c r="A178" s="5" t="s">
         <v>177</v>
       </c>
       <c r="B178">
-        <v>1.2323166006118293</v>
+        <v>1.2324370850956514</v>
       </c>
       <c r="C178">
         <v>0.074324875521456696</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="25" t="s">
+      <c r="A179" s="5" t="s">
         <v>178</v>
       </c>
       <c r="B179">
-        <v>0.85465846193374073</v>
+        <v>0.8549576618883431</v>
       </c>
       <c r="C179">
         <v>0.50261235686381334</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="25" t="s">
+      <c r="A180" s="5" t="s">
         <v>179</v>
       </c>
       <c r="B180">
-        <v>0.99486063209831699</v>
+        <v>0.99509287559348714</v>
       </c>
       <c r="C180">
         <v>0.529883602838498</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="25" t="s">
+      <c r="A181" s="5" t="s">
         <v>180</v>
       </c>
       <c r="B181">
-        <v>-1.7943976253568605</v>
+        <v>-1.7941642247624161</v>
       </c>
       <c r="C181">
         <v>-1.1335754480852778</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="25" t="s">
+      <c r="A182" s="5" t="s">
         <v>181</v>
       </c>
       <c r="B182">
-        <v>-1.0914176566531721</v>
+        <v>-1.0912578095323799</v>
       </c>
       <c r="C182">
         <v>-1.5322149686788376</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="25" t="s">
+      <c r="A183" s="5" t="s">
         <v>182</v>
       </c>
       <c r="B183">
-        <v>-1.3813732908946741</v>
+        <v>-1.3816215724708767</v>
       </c>
       <c r="C183">
         <v>-1.2566025101127236</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="25" t="s">
+      <c r="A184" s="5" t="s">
         <v>183</v>
       </c>
       <c r="B184">
-        <v>0.90183760925569845</v>
+        <v>0.90150119751829505</v>
       </c>
       <c r="C184">
         <v>1.112819718837575</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="25" t="s">
+      <c r="A185" s="5" t="s">
         <v>184</v>
       </c>
       <c r="B185">
-        <v>0.98570357190249858</v>
+        <v>0.98583313603653522</v>
       </c>
       <c r="C185">
         <v>1.2138057252863512</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="25" t="s">
+      <c r="A186" s="5" t="s">
         <v>185</v>
       </c>
       <c r="B186">
-        <v>0.66203676195492189</v>
+        <v>0.66211079655883398</v>
       </c>
       <c r="C186">
         <v>0.22026024079259307</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="25" t="s">
+      <c r="A187" s="5" t="s">
         <v>186</v>
       </c>
       <c r="B187">
-        <v>-1.2385265191825467</v>
+        <v>-1.2377514853411931</v>
       </c>
       <c r="C187">
         <v>-0.29724577727096607</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="25" t="s">
+      <c r="A188" s="5" t="s">
         <v>187</v>
       </c>
       <c r="B188">
-        <v>-0.28306251090752588</v>
+        <v>-0.28310190872606383</v>
       </c>
       <c r="C188">
         <v>-0.9918560720375833</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="25" t="s">
+      <c r="A189" s="5" t="s">
         <v>188</v>
       </c>
       <c r="B189">
-        <v>-0.67687660077122658</v>
+        <v>-0.67759124866349418</v>
       </c>
       <c r="C189">
         <v>-0.72362893322785138</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="25" t="s">
+      <c r="A190" s="5" t="s">
         <v>189</v>
       </c>
       <c r="B190">
-        <v>0.8978280164193565</v>
+        <v>0.89793578702547272</v>
       </c>
       <c r="C190">
         <v>0.13405393387554218</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="25" t="s">
+      <c r="A191" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B191">
-        <v>-0.21820376415004072</v>
+        <v>-0.21800905885144076</v>
       </c>
       <c r="C191">
         <v>0.42089089523288048</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="25" t="s">
+      <c r="A192" s="5" t="s">
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-0.92132850282379231</v>
+        <v>-0.92167419150333874</v>
       </c>
       <c r="C192">
         <v>-1.0772384834803428</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="25" t="s">
+      <c r="A193" s="5" t="s">
         <v>192</v>
       </c>
       <c r="B193">
-        <v>-0.23996645662345631</v>
+        <v>-0.2397283368663268</v>
       </c>
       <c r="C193">
         <v>-1.1601011677496862</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="25" t="s">
+      <c r="A194" s="5" t="s">
         <v>193</v>
       </c>
       <c r="B194">
-        <v>-1.3136249537861115</v>
+        <v>-1.3132638490561883</v>
       </c>
       <c r="C194">
         <v>-0.36069028145093013</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="25" t="s">
+      <c r="A195" s="5" t="s">
         <v>194</v>
       </c>
       <c r="B195">
-        <v>-0.92875793952966379</v>
+        <v>-0.92897675979818728</v>
       </c>
       <c r="C195">
         <v>-1.3347483673104452</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="25" t="s">
+      <c r="A196" s="5" t="s">
         <v>195</v>
       </c>
       <c r="B196">
-        <v>-1.313110632132297</v>
+        <v>-1.3143354786183112</v>
       </c>
       <c r="C196">
         <v>-2.1850511468184068</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="25" t="s">
+      <c r="A197" s="5" t="s">
         <v>196</v>
       </c>
       <c r="B197">
-        <v>-0.062545882990338281</v>
+        <v>-0.062971583697457867</v>
       </c>
       <c r="C197">
         <v>0.36236002438642412</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="25" t="s">
+      <c r="A198" s="5" t="s">
         <v>197</v>
       </c>
       <c r="B198">
-        <v>-0.14372013126285543</v>
+        <v>-0.14277363211211375</v>
       </c>
       <c r="C198">
         <v>-0.66132143877748029</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="25" t="s">
+      <c r="A199" s="5" t="s">
         <v>198</v>
       </c>
       <c r="B199">
-        <v>-1.055944937160072</v>
+        <v>-1.0550862331970972</v>
       </c>
       <c r="C199">
         <v>-0.16098460964649455</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="25" t="s">
+      <c r="A200" s="5" t="s">
         <v>199</v>
       </c>
       <c r="B200">
-        <v>0.53380670913582406</v>
+        <v>0.53461016562543473</v>
       </c>
       <c r="C200">
         <v>-1.95551246337789</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="25" t="s">
+      <c r="A201" s="5" t="s">
         <v>200</v>
       </c>
       <c r="B201">
-        <v>0.54376529178136945</v>
+        <v>0.54433970001523524</v>
       </c>
       <c r="C201">
         <v>0.86027757930422699</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="25" t="s">
+      <c r="A202" s="5" t="s">
         <v>201</v>
       </c>
       <c r="B202">
-        <v>0.14392708410305918</v>
+        <v>0.14419528681680935</v>
       </c>
       <c r="C202">
         <v>0.51977343707941637</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="25" t="s">
+      <c r="A203" s="5" t="s">
         <v>202</v>
       </c>
       <c r="B203">
-        <v>-1.3948271708768161</v>
+        <v>-1.3951018219510189</v>
       </c>
       <c r="C203">
         <v>1.3466680720975934</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="25" t="s">
+      <c r="A204" s="5" t="s">
         <v>203</v>
       </c>
       <c r="B204">
-        <v>0.69206905391913731</v>
+        <v>0.69213566675299432</v>
       </c>
       <c r="C204">
         <v>-0.21329222141858994</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="25" t="s">
+      <c r="A205" s="5" t="s">
         <v>204</v>
       </c>
       <c r="B205">
-        <v>0.95931972189952375</v>
+        <v>0.95921247693938416</v>
       </c>
       <c r="C205">
         <v>-0.46826905984740286</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="25" t="s">
+      <c r="A206" s="5" t="s">
         <v>205</v>
       </c>
       <c r="B206">
-        <v>-1.0008994373434643</v>
+        <v>-1.000769630481853</v>
       </c>
       <c r="C206">
         <v>-0.99735298939181838</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="25" t="s">
+      <c r="A207" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B207">
-        <v>1.1218450365730104</v>
+        <v>1.1214263067317511</v>
       </c>
       <c r="C207">
         <v>1.0415839834017164</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="25" t="s">
+      <c r="A208" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B208">
-        <v>1.1948663443324303</v>
+        <v>1.1950327669514267</v>
       </c>
       <c r="C208">
         <v>0.75315200570624474</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="25" t="s">
+      <c r="A209" s="5" t="s">
         <v>208</v>
       </c>
       <c r="B209">
-        <v>0.85012399099089397</v>
+        <v>0.85044142145820234</v>
       </c>
       <c r="C209">
         <v>0.52511459005765959</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="25" t="s">
+      <c r="A210" s="5" t="s">
         <v>209</v>
       </c>
       <c r="B210">
-        <v>-1.5680243433311645</v>
+        <v>-1.5683524875908796</v>
       </c>
       <c r="C210">
         <v>1.8479388079831081</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="25" t="s">
+      <c r="A211" s="5" t="s">
         <v>210</v>
       </c>
       <c r="B211">
-        <v>-1.4026432726240265</v>
+        <v>-1.4035129475303874</v>
       </c>
       <c r="C211">
         <v>-0.58908429944583129</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="25" t="s">
+      <c r="A212" s="5" t="s">
         <v>211</v>
       </c>
       <c r="B212">
-        <v>0.63424312439957742</v>
+        <v>0.63357079286140405</v>
       </c>
       <c r="C212">
         <v>0.72822293318338305</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="25" t="s">
+      <c r="A213" s="5" t="s">
         <v>212</v>
       </c>
       <c r="B213">
-        <v>1.4136342050407706</v>
+        <v>1.4135338322190343</v>
       </c>
       <c r="C213">
         <v>0.85817343520056455</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="25" t="s">
+      <c r="A214" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B214">
-        <v>-1.6236237652837333</v>
+        <v>-1.6238460658611042</v>
       </c>
       <c r="C214">
         <v>-0.10235980905345723</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="25" t="s">
+      <c r="A215" s="5" t="s">
         <v>214</v>
       </c>
       <c r="B215">
-        <v>-0.68695310727773184</v>
+        <v>-0.68698245919757683</v>
       </c>
       <c r="C215">
         <v>0.25539762172993463</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="25" t="s">
+      <c r="A216" s="5" t="s">
         <v>215</v>
       </c>
       <c r="B216">
-        <v>0.50686087225961007</v>
+        <v>0.50638184477059567</v>
       </c>
       <c r="C216">
         <v>0.59416715537446618</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="25" t="s">
+      <c r="A217" s="5" t="s">
         <v>216</v>
       </c>
       <c r="B217">
-        <v>0.57422617742292636</v>
+        <v>0.5752256903483205</v>
       </c>
       <c r="C217">
         <v>0.093122738762604351</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="25" t="s">
+      <c r="A218" s="5" t="s">
         <v>217</v>
       </c>
       <c r="B218">
-        <v>0.46075991912575515</v>
+        <v>0.46016068139358668</v>
       </c>
       <c r="C218">
         <v>-1.173858738592247</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="25" t="s">
+      <c r="A219" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B219">
-        <v>0.54119697815713741</v>
+        <v>0.54215237525116744</v>
       </c>
       <c r="C219">
         <v>1.3351508174436826</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="25" t="s">
+      <c r="A220" s="5" t="s">
         <v>219</v>
       </c>
       <c r="B220">
-        <v>-0.24562541373791488</v>
+        <v>-0.24519728202762378</v>
       </c>
       <c r="C220">
         <v>0.43103406211102857</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="25" t="s">
+      <c r="A221" s="5" t="s">
         <v>220</v>
       </c>
       <c r="B221">
-        <v>-1.1120456772484992</v>
+        <v>-1.1118860074099954</v>
       </c>
       <c r="C221">
         <v>-0.8135457709104944</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="25" t="s">
+      <c r="A222" s="5" t="s">
         <v>221</v>
       </c>
       <c r="B222">
-        <v>1.3780531620777634</v>
+        <v>1.3782658634293063</v>
       </c>
       <c r="C222">
         <v>0.6074061533817311</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="25" t="s">
+      <c r="A223" s="5" t="s">
         <v>222</v>
       </c>
       <c r="B223">
-        <v>-2.1246007395432396</v>
+        <v>-2.1246067885339839</v>
       </c>
       <c r="C223">
         <v>-0.3571391843690091</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="25" t="s">
+      <c r="A224" s="5" t="s">
         <v>223</v>
       </c>
       <c r="B224">
-        <v>0.26741865663209197</v>
+        <v>0.2669972404266715</v>
       </c>
       <c r="C224">
         <v>0.50465575354034042</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="25" t="s">
+      <c r="A225" s="5" t="s">
         <v>224</v>
       </c>
       <c r="B225">
-        <v>-1.0050213170376363</v>
+        <v>-1.0045695162918538</v>
       </c>
       <c r="C225">
         <v>-0.47715397129220843</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="25" t="s">
+      <c r="A226" s="5" t="s">
         <v>225</v>
       </c>
       <c r="B226">
-        <v>1.314407024369413</v>
+        <v>1.3143078182995029</v>
       </c>
       <c r="C226">
         <v>0.56453049699932345</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="25" t="s">
+      <c r="A227" s="5" t="s">
         <v>226</v>
       </c>
       <c r="B227">
-        <v>0.60692021874513224</v>
+        <v>0.60609876133159757</v>
       </c>
       <c r="C227">
         <v>0.47244106676976544</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="25" t="s">
+      <c r="A228" s="5" t="s">
         <v>227</v>
       </c>
       <c r="B228">
-        <v>-0.48015977596630377</v>
+        <v>-0.47961094429867612</v>
       </c>
       <c r="C228">
         <v>0.50011804304358354</v>
